--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il4-Il13ra2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il4-Il13ra2.xlsx
@@ -543,46 +543,46 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.0860255</v>
+        <v>0.6994255</v>
       </c>
       <c r="H2">
-        <v>0.172051</v>
+        <v>1.398851</v>
       </c>
       <c r="I2">
-        <v>0.01866214241451323</v>
+        <v>0.182573212173366</v>
       </c>
       <c r="J2">
-        <v>0.01457003365018844</v>
+        <v>0.1466317745802101</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.7352585</v>
+        <v>0.0568385</v>
       </c>
       <c r="N2">
-        <v>1.470517</v>
+        <v>0.113677</v>
       </c>
       <c r="O2">
-        <v>0.1431143522522708</v>
+        <v>0.01274651757362603</v>
       </c>
       <c r="P2">
-        <v>0.1001890659257553</v>
+        <v>0.008533937711420974</v>
       </c>
       <c r="Q2">
-        <v>0.06325098009175001</v>
+        <v>0.03975429628175</v>
       </c>
       <c r="R2">
-        <v>0.253003920367</v>
+        <v>0.159017185127</v>
       </c>
       <c r="S2">
-        <v>0.002670820423292689</v>
+        <v>0.002327172657441164</v>
       </c>
       <c r="T2">
-        <v>0.001459758061919203</v>
+        <v>0.001251346430782634</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.0860255</v>
+        <v>0.6994255</v>
       </c>
       <c r="H3">
-        <v>0.172051</v>
+        <v>1.398851</v>
       </c>
       <c r="I3">
-        <v>0.01866214241451323</v>
+        <v>0.182573212173366</v>
       </c>
       <c r="J3">
-        <v>0.01457003365018844</v>
+        <v>0.1466317745802101</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>13.206903</v>
       </c>
       <c r="O3">
-        <v>0.8568856477477294</v>
+        <v>0.9872534824263741</v>
       </c>
       <c r="P3">
-        <v>0.8998109340742446</v>
+        <v>0.9914660622885791</v>
       </c>
       <c r="Q3">
-        <v>0.3787101446755001</v>
+        <v>3.0790815780755</v>
       </c>
       <c r="R3">
-        <v>2.272260868053</v>
+        <v>18.474489468453</v>
       </c>
       <c r="S3">
-        <v>0.01599132199122054</v>
+        <v>0.1802460395159249</v>
       </c>
       <c r="T3">
-        <v>0.01311027558826923</v>
+        <v>0.1453804281494274</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,40 +673,40 @@
         <v>1.132881</v>
       </c>
       <c r="I4">
-        <v>0.08192139369797775</v>
+        <v>0.09857314952542007</v>
       </c>
       <c r="J4">
-        <v>0.09593733423031037</v>
+        <v>0.1187519981886584</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.7352585</v>
+        <v>0.0568385</v>
       </c>
       <c r="N4">
-        <v>1.470517</v>
+        <v>0.113677</v>
       </c>
       <c r="O4">
-        <v>0.1431143522522708</v>
+        <v>0.01274651757362603</v>
       </c>
       <c r="P4">
-        <v>0.1001890659257553</v>
+        <v>0.008533937711420974</v>
       </c>
       <c r="Q4">
-        <v>0.2776534615795</v>
+        <v>0.0214637522395</v>
       </c>
       <c r="R4">
-        <v>1.665920769477</v>
+        <v>0.128782513437</v>
       </c>
       <c r="S4">
-        <v>0.01172412719468934</v>
+        <v>0.001256464382713434</v>
       </c>
       <c r="T4">
-        <v>0.00961187190394179</v>
+        <v>0.001013422155648787</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>1.132881</v>
       </c>
       <c r="I5">
-        <v>0.08192139369797775</v>
+        <v>0.09857314952542007</v>
       </c>
       <c r="J5">
-        <v>0.09593733423031037</v>
+        <v>0.1187519981886584</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -753,10 +753,10 @@
         <v>13.206903</v>
       </c>
       <c r="O5">
-        <v>0.8568856477477294</v>
+        <v>0.9872534824263741</v>
       </c>
       <c r="P5">
-        <v>0.8998109340742446</v>
+        <v>0.9914660622885791</v>
       </c>
       <c r="Q5">
         <v>1.662427719727</v>
@@ -765,10 +765,10 @@
         <v>14.961849477543</v>
       </c>
       <c r="S5">
-        <v>0.07019726650328842</v>
+        <v>0.09731668514270665</v>
       </c>
       <c r="T5">
-        <v>0.08632546232636858</v>
+        <v>0.1177385760330096</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.258563666666667</v>
+        <v>0.2206816666666667</v>
       </c>
       <c r="H6">
-        <v>3.775691</v>
+        <v>0.662045</v>
       </c>
       <c r="I6">
-        <v>0.273029443421605</v>
+        <v>0.05760522135825098</v>
       </c>
       <c r="J6">
-        <v>0.3197420818403476</v>
+        <v>0.06939755070551128</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.7352585</v>
+        <v>0.0568385</v>
       </c>
       <c r="N6">
-        <v>1.470517</v>
+        <v>0.113677</v>
       </c>
       <c r="O6">
-        <v>0.1431143522522708</v>
+        <v>0.01274651757362603</v>
       </c>
       <c r="P6">
-        <v>0.1001890659257553</v>
+        <v>0.008533937711420974</v>
       </c>
       <c r="Q6">
-        <v>0.9253696337078333</v>
+        <v>0.01254321491083333</v>
       </c>
       <c r="R6">
-        <v>5.552217802247</v>
+        <v>0.075259289465</v>
       </c>
       <c r="S6">
-        <v>0.03907443194108101</v>
+        <v>0.0007342659663755638</v>
       </c>
       <c r="T6">
-        <v>0.03203466051674084</v>
+        <v>0.0005922343750460119</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.258563666666667</v>
+        <v>0.2206816666666667</v>
       </c>
       <c r="H7">
-        <v>3.775691</v>
+        <v>0.662045</v>
       </c>
       <c r="I7">
-        <v>0.273029443421605</v>
+        <v>0.05760522135825098</v>
       </c>
       <c r="J7">
-        <v>0.3197420818403476</v>
+        <v>0.06939755070551128</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,22 +877,22 @@
         <v>13.206903</v>
       </c>
       <c r="O7">
-        <v>0.8568856477477294</v>
+        <v>0.9872534824263741</v>
       </c>
       <c r="P7">
-        <v>0.8998109340742446</v>
+        <v>0.9914660622885791</v>
       </c>
       <c r="Q7">
-        <v>5.540576088330334</v>
+        <v>0.9715071218483334</v>
       </c>
       <c r="R7">
-        <v>49.865184794973</v>
+        <v>8.743564096635</v>
       </c>
       <c r="S7">
-        <v>0.233955011480524</v>
+        <v>0.05687095539187542</v>
       </c>
       <c r="T7">
-        <v>0.2877074213236067</v>
+        <v>0.06880531633046527</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.934301</v>
+        <v>1.2534795</v>
       </c>
       <c r="H8">
-        <v>3.868602</v>
+        <v>2.506959</v>
       </c>
       <c r="I8">
-        <v>0.4196220973378282</v>
+        <v>0.327199649867591</v>
       </c>
       <c r="J8">
-        <v>0.327610193019432</v>
+        <v>0.2627869923028463</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.7352585</v>
+        <v>0.0568385</v>
       </c>
       <c r="N8">
-        <v>1.470517</v>
+        <v>0.113677</v>
       </c>
       <c r="O8">
-        <v>0.1431143522522708</v>
+        <v>0.01274651757362603</v>
       </c>
       <c r="P8">
-        <v>0.1001890659257553</v>
+        <v>0.008533937711420974</v>
       </c>
       <c r="Q8">
-        <v>1.4222112518085</v>
+        <v>0.07124589456075001</v>
       </c>
       <c r="R8">
-        <v>5.688845007234001</v>
+        <v>0.284983578243</v>
       </c>
       <c r="S8">
-        <v>0.0600539446512426</v>
+        <v>0.004170656087121533</v>
       </c>
       <c r="T8">
-        <v>0.03282295922637331</v>
+        <v>0.002242607823684153</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.934301</v>
+        <v>1.2534795</v>
       </c>
       <c r="H9">
-        <v>3.868602</v>
+        <v>2.506959</v>
       </c>
       <c r="I9">
-        <v>0.4196220973378282</v>
+        <v>0.327199649867591</v>
       </c>
       <c r="J9">
-        <v>0.327610193019432</v>
+        <v>0.2627869923028463</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>13.206903</v>
       </c>
       <c r="O9">
-        <v>0.8568856477477294</v>
+        <v>0.9872534824263741</v>
       </c>
       <c r="P9">
-        <v>0.8998109340742446</v>
+        <v>0.9914660622885791</v>
       </c>
       <c r="Q9">
-        <v>8.515375226601002</v>
+        <v>5.518194056329501</v>
       </c>
       <c r="R9">
-        <v>51.092251359606</v>
+        <v>33.10916433797701</v>
       </c>
       <c r="S9">
-        <v>0.3595681526865857</v>
+        <v>0.3230289937804695</v>
       </c>
       <c r="T9">
-        <v>0.2947872337930587</v>
+        <v>0.2605443844791622</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.5777963333333334</v>
+        <v>0.2558096666666667</v>
       </c>
       <c r="H10">
-        <v>1.733389</v>
+        <v>0.767429</v>
       </c>
       <c r="I10">
-        <v>0.1253455947277287</v>
+        <v>0.06677479238079162</v>
       </c>
       <c r="J10">
-        <v>0.1467909867357149</v>
+        <v>0.08044421895849953</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.7352585</v>
+        <v>0.0568385</v>
       </c>
       <c r="N10">
-        <v>1.470517</v>
+        <v>0.113677</v>
       </c>
       <c r="O10">
-        <v>0.1431143522522708</v>
+        <v>0.01274651757362603</v>
       </c>
       <c r="P10">
-        <v>0.1001890659257553</v>
+        <v>0.008533937711420974</v>
       </c>
       <c r="Q10">
-        <v>0.4248296653521667</v>
+        <v>0.01453983773883333</v>
       </c>
       <c r="R10">
-        <v>2.548977992113</v>
+        <v>0.08723902643300001</v>
       </c>
       <c r="S10">
-        <v>0.01793875359713453</v>
+        <v>0.0008511460645569901</v>
       </c>
       <c r="T10">
-        <v>0.01470685184737122</v>
+        <v>0.0006865059538357452</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.5777963333333334</v>
+        <v>0.2558096666666667</v>
       </c>
       <c r="H11">
-        <v>1.733389</v>
+        <v>0.767429</v>
       </c>
       <c r="I11">
-        <v>0.1253455947277287</v>
+        <v>0.06677479238079162</v>
       </c>
       <c r="J11">
-        <v>0.1467909867357149</v>
+        <v>0.08044421895849953</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>13.206903</v>
       </c>
       <c r="O11">
-        <v>0.8568856477477294</v>
+        <v>0.9872534824263741</v>
       </c>
       <c r="P11">
-        <v>0.8998109340742446</v>
+        <v>0.9914660622885791</v>
       </c>
       <c r="Q11">
-        <v>2.543633376029667</v>
+        <v>1.126151151376333</v>
       </c>
       <c r="R11">
-        <v>22.892700384267</v>
+        <v>10.135360362387</v>
       </c>
       <c r="S11">
-        <v>0.1074068411305941</v>
+        <v>0.06592364631623464</v>
       </c>
       <c r="T11">
-        <v>0.1320841348883437</v>
+        <v>0.07975771300466379</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3753126666666667</v>
+        <v>1.023908333333333</v>
       </c>
       <c r="H12">
-        <v>1.125938</v>
+        <v>3.071725</v>
       </c>
       <c r="I12">
-        <v>0.08141932840034714</v>
+        <v>0.2672739746945804</v>
       </c>
       <c r="J12">
-        <v>0.09534937052400667</v>
+        <v>0.3219874652642745</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.7352585</v>
+        <v>0.0568385</v>
       </c>
       <c r="N12">
-        <v>1.470517</v>
+        <v>0.113677</v>
       </c>
       <c r="O12">
-        <v>0.1431143522522708</v>
+        <v>0.01274651757362603</v>
       </c>
       <c r="P12">
-        <v>0.1001890659257553</v>
+        <v>0.008533937711420974</v>
       </c>
       <c r="Q12">
-        <v>0.2759518283243333</v>
+        <v>0.05819741380416666</v>
       </c>
       <c r="R12">
-        <v>1.655710969946</v>
+        <v>0.349184482825</v>
       </c>
       <c r="S12">
-        <v>0.01165227444483059</v>
+        <v>0.003406812415417348</v>
       </c>
       <c r="T12">
-        <v>0.009552964369408978</v>
+        <v>0.002747820972423644</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3753126666666667</v>
+        <v>1.023908333333333</v>
       </c>
       <c r="H13">
-        <v>1.125938</v>
+        <v>3.071725</v>
       </c>
       <c r="I13">
-        <v>0.08141932840034714</v>
+        <v>0.2672739746945804</v>
       </c>
       <c r="J13">
-        <v>0.09534937052400667</v>
+        <v>0.3219874652642745</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1249,22 +1249,22 @@
         <v>13.206903</v>
       </c>
       <c r="O13">
-        <v>0.8568856477477294</v>
+        <v>0.9872534824263741</v>
       </c>
       <c r="P13">
-        <v>0.8998109340742446</v>
+        <v>0.9914660622885791</v>
       </c>
       <c r="Q13">
-        <v>1.652239327779334</v>
+        <v>4.507552679741667</v>
       </c>
       <c r="R13">
-        <v>14.870153950014</v>
+        <v>40.567974117675</v>
       </c>
       <c r="S13">
-        <v>0.06976705395551656</v>
+        <v>0.2638671622791631</v>
       </c>
       <c r="T13">
-        <v>0.08579640615459769</v>
+        <v>0.3192396442918509</v>
       </c>
     </row>
   </sheetData>
